--- a/docs/Examples/Example1_Gas_Cell_Calibration/strong_Diads.xlsx
+++ b/docs/Examples/Example1_Gas_Cell_Calibration/strong_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>filename</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Diad1_Voigt_Sigma</t>
   </si>
   <si>
-    <t>Residual_Diad1</t>
+    <t>Diad1_Residual</t>
   </si>
   <si>
     <t>Diad1_Prop_Lor</t>
@@ -67,7 +67,7 @@
     <t>Diad2_Voigt_Gamma</t>
   </si>
   <si>
-    <t>Residual_Diad2</t>
+    <t>Diad2_Residual</t>
   </si>
   <si>
     <t>Diad2_Prop_Lor</t>
@@ -106,9 +106,39 @@
     <t>C13_Sigma</t>
   </si>
   <si>
+    <t>Diad2_Gauss_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_Gauss_Area</t>
+  </si>
+  <si>
+    <t>Diad2_Gauss_Sigma</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Cent</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Area</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Sigma</t>
+  </si>
+  <si>
     <t>POC1</t>
   </si>
   <si>
+    <t>POC12</t>
+  </si>
+  <si>
+    <t>POC13</t>
+  </si>
+  <si>
+    <t>POC14</t>
+  </si>
+  <si>
+    <t>POC15</t>
+  </si>
+  <si>
     <t>POC2</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t>POC8</t>
+  </si>
+  <si>
+    <t>POC9</t>
   </si>
   <si>
     <t>Flagged Warnings:</t>
@@ -488,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,741 +618,1453 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>104.9479331323153</v>
+        <v>104.9476784286014</v>
       </c>
       <c r="D2">
-        <v>1281.782729736465</v>
+        <v>1281.782924214605</v>
       </c>
       <c r="E2">
-        <v>19889.23032907757</v>
+        <v>19946.80296074217</v>
       </c>
       <c r="F2">
-        <v>1281.782679733965</v>
+        <v>1281.782974217105</v>
       </c>
       <c r="G2">
-        <v>59037.37425997388</v>
+        <v>59361.74901674854</v>
       </c>
       <c r="H2">
-        <v>1.07186661830296</v>
+        <v>1.072402163153089</v>
       </c>
       <c r="I2">
-        <v>26.84604421801129</v>
+        <v>21.20268519462382</v>
       </c>
       <c r="J2">
-        <v>0.7435548670333271</v>
+        <v>0.7512733148692338</v>
       </c>
       <c r="K2">
-        <v>2.143733236605919</v>
+        <v>2.144804326306178</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M2">
-        <v>1386.730662868781</v>
+        <v>1386.730702648206</v>
       </c>
       <c r="N2">
-        <v>38315.81241847303</v>
+        <v>38316.94835676606</v>
       </c>
       <c r="O2">
-        <v>1386.730612866281</v>
+        <v>1386.730652645706</v>
       </c>
       <c r="P2">
-        <v>110783.6473919709</v>
+        <v>110740.7973950741</v>
       </c>
       <c r="Q2">
-        <v>1.031878900414338</v>
+        <v>1.03187789561305</v>
       </c>
       <c r="S2">
-        <v>29.36800868114815</v>
+        <v>30.09136953056005</v>
       </c>
       <c r="T2">
-        <v>0.7630318380792005</v>
+        <v>0.7623907070993852</v>
       </c>
       <c r="U2">
-        <v>2.063757800828676</v>
+        <v>2.063755791226099</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W2">
-        <v>1261.711549907093</v>
+        <v>1261.632906580897</v>
       </c>
       <c r="X2">
-        <v>8185.863124158755</v>
+        <v>7988.40234071237</v>
       </c>
       <c r="Y2">
-        <v>3.213568428518479</v>
+        <v>3.214880017098329</v>
       </c>
       <c r="Z2">
-        <v>1408.059423266044</v>
+        <v>1408.045241093079</v>
       </c>
       <c r="AA2">
-        <v>10551.43606262748</v>
+        <v>9990.415487224678</v>
       </c>
       <c r="AB2">
-        <v>2.875244396485833</v>
+        <v>2.881867499966566</v>
       </c>
       <c r="AC2">
-        <v>1369.532296547679</v>
+        <v>1369.530276479747</v>
       </c>
       <c r="AD2">
-        <v>1329.071490984704</v>
+        <v>1318.789010407202</v>
       </c>
       <c r="AE2">
-        <v>0.5151967396781408</v>
+        <v>0.5152012696179091</v>
+      </c>
+      <c r="AF2">
+        <v>1387.124278426793</v>
+      </c>
+      <c r="AG2">
+        <v>10605.639589914</v>
+      </c>
+      <c r="AH2">
+        <v>15.12793057208762</v>
+      </c>
+      <c r="AI2">
+        <v>1282.884695019693</v>
+      </c>
+      <c r="AJ2">
+        <v>7700.896305388147</v>
+      </c>
+      <c r="AK2">
+        <v>13.74205608903671</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>104.8871500230869</v>
+        <v>104.1634687468404</v>
       </c>
       <c r="D3">
-        <v>1281.888845952124</v>
+        <v>1283.321329841807</v>
       </c>
       <c r="E3">
-        <v>30295.7410303378</v>
+        <v>4285.943136536168</v>
       </c>
       <c r="F3">
-        <v>1281.888795949624</v>
+        <v>1283.321479849308</v>
       </c>
       <c r="G3">
-        <v>89500.96168256902</v>
+        <v>13342.90543479747</v>
       </c>
       <c r="H3">
-        <v>1.071199793588764</v>
+        <v>1.188512016791407</v>
       </c>
       <c r="I3">
-        <v>38.69001674857584</v>
+        <v>6.217971306569927</v>
       </c>
       <c r="J3">
-        <v>0.7336603322393038</v>
+        <v>0.5990287554746254</v>
       </c>
       <c r="K3">
-        <v>2.142399587177529</v>
+        <v>2.377024033582813</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>1386.775895970211</v>
+        <v>1387.484898593648</v>
       </c>
       <c r="N3">
-        <v>58221.56026635403</v>
+        <v>8737.273677504829</v>
       </c>
       <c r="O3">
-        <v>1386.775945972711</v>
+        <v>1387.484948596148</v>
       </c>
       <c r="P3">
-        <v>167471.7747662435</v>
+        <v>22927.79158534891</v>
       </c>
       <c r="Q3">
-        <v>1.026457768052346</v>
+        <v>0.96780491055662</v>
       </c>
       <c r="S3">
-        <v>56.11401379513187</v>
+        <v>7.2994244363107</v>
       </c>
       <c r="T3">
-        <v>0.7610051410977138</v>
+        <v>0.6763617537940487</v>
       </c>
       <c r="U3">
-        <v>2.052915536104692</v>
+        <v>1.93560982111324</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W3">
-        <v>1261.82174511038</v>
+        <v>1263.250630846301</v>
       </c>
       <c r="X3">
-        <v>12549.61806653244</v>
+        <v>1435.316911002287</v>
       </c>
       <c r="Y3">
-        <v>3.21125857956214</v>
+        <v>2.175299263578923</v>
       </c>
       <c r="Z3">
-        <v>1407.529926093411</v>
+        <v>1408.861535095919</v>
       </c>
       <c r="AA3">
-        <v>19052.8527414657</v>
+        <v>2414.847321130944</v>
       </c>
       <c r="AB3">
-        <v>3.053651954009437</v>
+        <v>1.964629053372389</v>
       </c>
       <c r="AC3">
-        <v>1369.544948340593</v>
+        <v>1369.725556490832</v>
       </c>
       <c r="AD3">
-        <v>1984.983008947919</v>
+        <v>288.865383367693</v>
       </c>
       <c r="AE3">
-        <v>0.5123845551491344</v>
+        <v>0.4826822220693966</v>
+      </c>
+      <c r="AF3">
+        <v>1382.803050651505</v>
+      </c>
+      <c r="AG3">
+        <v>1396.486866576858</v>
+      </c>
+      <c r="AH3">
+        <v>16.7072591383349</v>
+      </c>
+      <c r="AI3">
+        <v>1276.695156594785</v>
+      </c>
+      <c r="AJ3">
+        <v>1688.646654957218</v>
+      </c>
+      <c r="AK3">
+        <v>22.72769260675942</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>104.8016491050366</v>
+        <v>104.1339880773223</v>
       </c>
       <c r="D4">
-        <v>1282.036675371874</v>
+        <v>1283.384666309429</v>
       </c>
       <c r="E4">
-        <v>29796.10770756577</v>
+        <v>4014.343851195673</v>
       </c>
       <c r="F4">
-        <v>1282.036625369374</v>
+        <v>1283.384716311929</v>
       </c>
       <c r="G4">
-        <v>87733.27280162196</v>
+        <v>12619.18498504297</v>
       </c>
       <c r="H4">
-        <v>1.07310628374263</v>
+        <v>1.197467930972734</v>
       </c>
       <c r="I4">
-        <v>37.94100211995179</v>
+        <v>4.452257801031305</v>
       </c>
       <c r="J4">
-        <v>0.7205639723315695</v>
+        <v>0.6034430585570295</v>
       </c>
       <c r="K4">
-        <v>2.14621256748526</v>
+        <v>2.394935861945468</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>1386.838424481911</v>
+        <v>1387.518654386751</v>
       </c>
       <c r="N4">
-        <v>57204.47922864305</v>
+        <v>8263.065115526346</v>
       </c>
       <c r="O4">
-        <v>1386.838274474411</v>
+        <v>1387.518704389251</v>
       </c>
       <c r="P4">
-        <v>162453.6732436196</v>
+        <v>21696.41879932801</v>
       </c>
       <c r="Q4">
-        <v>1.021354797642261</v>
+        <v>0.9701184734574737</v>
       </c>
       <c r="S4">
-        <v>55.0562317181823</v>
+        <v>7.066707184051723</v>
       </c>
       <c r="T4">
-        <v>0.742749743307342</v>
+        <v>0.6718872131336326</v>
       </c>
       <c r="U4">
-        <v>2.042709595284522</v>
+        <v>1.940236946914947</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W4">
-        <v>1262.00058866743</v>
+        <v>1263.384517806205</v>
       </c>
       <c r="X4">
-        <v>12588.90167049784</v>
+        <v>1453.802449146238</v>
       </c>
       <c r="Y4">
-        <v>3.217842932873806</v>
+        <v>2.231148909879786</v>
       </c>
       <c r="Z4">
-        <v>1408.192157323813</v>
+        <v>1408.878035328111</v>
       </c>
       <c r="AA4">
-        <v>11685.54954223369</v>
+        <v>2286.440281203986</v>
       </c>
       <c r="AB4">
-        <v>2.609437453438148</v>
+        <v>1.955350199852014</v>
       </c>
       <c r="AC4">
-        <v>1369.557691579942</v>
+        <v>1369.751627276293</v>
       </c>
       <c r="AD4">
-        <v>2078.510283476759</v>
+        <v>279.260071026489</v>
       </c>
       <c r="AE4">
-        <v>0.5098602856411618</v>
+        <v>0.4838007302846202</v>
+      </c>
+      <c r="AF4">
+        <v>1382.433045226813</v>
+      </c>
+      <c r="AG4">
+        <v>1284.289719739767</v>
+      </c>
+      <c r="AH4">
+        <v>16.29813461146106</v>
+      </c>
+      <c r="AI4">
+        <v>1279.938007025533</v>
+      </c>
+      <c r="AJ4">
+        <v>1388.538381365647</v>
+      </c>
+      <c r="AK4">
+        <v>22.21669017522827</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>104.7005939504993</v>
+        <v>104.1083205581394</v>
       </c>
       <c r="D5">
-        <v>1282.22139273099</v>
+        <v>1283.442811884607</v>
       </c>
       <c r="E5">
-        <v>28850.16444341444</v>
+        <v>3722.729975022833</v>
       </c>
       <c r="F5">
-        <v>1282.22134272849</v>
+        <v>1283.442861887107</v>
       </c>
       <c r="G5">
-        <v>84984.2551792335</v>
+        <v>11828.47928705928</v>
       </c>
       <c r="H5">
-        <v>1.075867792785409</v>
+        <v>1.211493227862678</v>
       </c>
       <c r="I5">
-        <v>35.23822835823477</v>
+        <v>4.229893637573201</v>
       </c>
       <c r="J5">
-        <v>0.7123084357422744</v>
+        <v>0.6008989795370185</v>
       </c>
       <c r="K5">
-        <v>2.151735585570818</v>
+        <v>2.422986455725355</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>1386.921986681489</v>
+        <v>1387.551132442747</v>
       </c>
       <c r="N5">
-        <v>55482.66593143317</v>
+        <v>7698.684692585603</v>
       </c>
       <c r="O5">
-        <v>1386.921936678989</v>
+        <v>1387.551182445247</v>
       </c>
       <c r="P5">
-        <v>154793.2949719762</v>
+        <v>20138.71832973745</v>
       </c>
       <c r="Q5">
-        <v>1.010704379979572</v>
+        <v>0.9669075289160429</v>
       </c>
       <c r="S5">
-        <v>49.54498159718356</v>
+        <v>6.853014636952102</v>
       </c>
       <c r="T5">
-        <v>0.7263406336545997</v>
+        <v>0.6705957311639356</v>
       </c>
       <c r="U5">
-        <v>2.021408759959143</v>
+        <v>1.933815057832086</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W5">
-        <v>1262.170903291195</v>
+        <v>1263.403543312355</v>
       </c>
       <c r="X5">
-        <v>12226.29749569919</v>
+        <v>1349.448072559533</v>
       </c>
       <c r="Y5">
-        <v>3.181034792250757</v>
+        <v>2.177789850468851</v>
       </c>
       <c r="Z5">
-        <v>1408.259461338794</v>
+        <v>1408.908633904419</v>
       </c>
       <c r="AA5">
-        <v>16015.3210016518</v>
+        <v>2177.794201633589</v>
       </c>
       <c r="AB5">
-        <v>2.537980230933836</v>
+        <v>1.970584708835324</v>
       </c>
       <c r="AC5">
-        <v>1369.568961696437</v>
+        <v>1369.747014869201</v>
       </c>
       <c r="AD5">
-        <v>1853.098485855985</v>
+        <v>250.4687809867945</v>
       </c>
       <c r="AE5">
-        <v>0.5046492937733519</v>
+        <v>0.4822528986099598</v>
+      </c>
+      <c r="AF5">
+        <v>1381.89248108495</v>
+      </c>
+      <c r="AG5">
+        <v>1176.265354872738</v>
+      </c>
+      <c r="AH5">
+        <v>16.31659742727674</v>
+      </c>
+      <c r="AI5">
+        <v>1279.920225886894</v>
+      </c>
+      <c r="AJ5">
+        <v>1297.834953723794</v>
+      </c>
+      <c r="AK5">
+        <v>22.6279039386698</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>104.6494759987572</v>
+        <v>104.0682996942642</v>
       </c>
       <c r="D6">
-        <v>1282.314784919866</v>
+        <v>1283.528819302094</v>
       </c>
       <c r="E6">
-        <v>28640.34921596829</v>
+        <v>3489.25611053682</v>
       </c>
       <c r="F6">
-        <v>1282.314634912365</v>
+        <v>1283.528869304594</v>
       </c>
       <c r="G6">
-        <v>84502.66405402367</v>
+        <v>11076.55297267731</v>
       </c>
       <c r="H6">
-        <v>1.082239627823423</v>
+        <v>1.212781793259066</v>
       </c>
       <c r="I6">
-        <v>35.18012457389634</v>
+        <v>3.721927932813009</v>
       </c>
       <c r="J6">
-        <v>0.7020968556728207</v>
+        <v>0.5961684907143696</v>
       </c>
       <c r="K6">
-        <v>2.164479255646845</v>
+        <v>2.425563586518132</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>1386.964160913623</v>
+        <v>1387.597118996358</v>
       </c>
       <c r="N6">
-        <v>55424.37008281841</v>
+        <v>7159.727310668255</v>
       </c>
       <c r="O6">
-        <v>1386.964110911123</v>
+        <v>1387.597168998858</v>
       </c>
       <c r="P6">
-        <v>153557.5594280605</v>
+        <v>18583.56743725797</v>
       </c>
       <c r="Q6">
-        <v>1.003900619019255</v>
+        <v>0.967285461683675</v>
       </c>
       <c r="S6">
-        <v>45.39626094629767</v>
+        <v>6.454182950187187</v>
       </c>
       <c r="T6">
-        <v>0.7242635945094898</v>
+        <v>0.6514527940516144</v>
       </c>
       <c r="U6">
-        <v>2.00780123803851</v>
+        <v>1.93457092336735</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W6">
-        <v>1262.266450657315</v>
+        <v>1263.468225981421</v>
       </c>
       <c r="X6">
-        <v>12387.07831161471</v>
+        <v>1265.465839131508</v>
       </c>
       <c r="Y6">
-        <v>3.189240795611797</v>
+        <v>2.185418354722417</v>
       </c>
       <c r="Z6">
-        <v>1408.308017817346</v>
+        <v>1408.98598802434</v>
       </c>
       <c r="AA6">
-        <v>15504.58223946571</v>
+        <v>2008.038440916199</v>
       </c>
       <c r="AB6">
-        <v>2.49928222086213</v>
+        <v>1.900696054019485</v>
       </c>
       <c r="AC6">
-        <v>1369.588980446473</v>
+        <v>1369.767047465218</v>
       </c>
       <c r="AD6">
-        <v>1909.368806839859</v>
+        <v>237.6538845777187</v>
       </c>
       <c r="AE6">
-        <v>0.5012237622413425</v>
+        <v>0.4823742972168144</v>
+      </c>
+      <c r="AF6">
+        <v>1381.560599713861</v>
+      </c>
+      <c r="AG6">
+        <v>1204.26232417848</v>
+      </c>
+      <c r="AH6">
+        <v>16.17691523450666</v>
+      </c>
+      <c r="AI6">
+        <v>1279.77511353325</v>
+      </c>
+      <c r="AJ6">
+        <v>1211.517784785733</v>
+      </c>
+      <c r="AK6">
+        <v>22.18394570899532</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>104.5930660546326</v>
+        <v>104.8866189548082</v>
       </c>
       <c r="D7">
-        <v>1282.422327702212</v>
+        <v>1281.88907510107</v>
       </c>
       <c r="E7">
-        <v>27783.76785175614</v>
+        <v>30379.42090076623</v>
       </c>
       <c r="F7">
-        <v>1282.422177694712</v>
+        <v>1281.88912510357</v>
       </c>
       <c r="G7">
-        <v>82210.40338622162</v>
+        <v>90018.45137289981</v>
       </c>
       <c r="H7">
-        <v>1.086473785162904</v>
+        <v>1.071777779501954</v>
       </c>
       <c r="I7">
-        <v>33.69767163356511</v>
+        <v>32.3421621353319</v>
       </c>
       <c r="J7">
-        <v>0.6979770116032935</v>
+        <v>0.741807613025274</v>
       </c>
       <c r="K7">
-        <v>2.172947570325807</v>
+        <v>2.143555559003907</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>1387.015293751844</v>
+        <v>1386.775794060879</v>
       </c>
       <c r="N7">
-        <v>53952.29993377077</v>
+        <v>58208.92090503233</v>
       </c>
       <c r="O7">
-        <v>1387.015243749344</v>
+        <v>1386.775744058378</v>
       </c>
       <c r="P7">
-        <v>148504.3651851682</v>
+        <v>166901.7076173946</v>
       </c>
       <c r="Q7">
-        <v>0.9979348954101972</v>
+        <v>1.026372305592948</v>
       </c>
       <c r="S7">
-        <v>45.22683488826661</v>
+        <v>46.87271128401891</v>
       </c>
       <c r="T7">
-        <v>0.7222744718364473</v>
+        <v>0.7555304133624288</v>
       </c>
       <c r="U7">
-        <v>1.995869790820394</v>
+        <v>2.052744611185895</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W7">
-        <v>1262.42966172827</v>
+        <v>1261.742840124733</v>
       </c>
       <c r="X7">
-        <v>12231.21059653285</v>
+        <v>12258.88753321141</v>
       </c>
       <c r="Y7">
-        <v>3.252647114892342</v>
+        <v>3.212322654505554</v>
       </c>
       <c r="Z7">
-        <v>1408.370352414466</v>
+        <v>1408.080263591396</v>
       </c>
       <c r="AA7">
-        <v>14924.23519373566</v>
+        <v>15464.5298486343</v>
       </c>
       <c r="AB7">
-        <v>2.3996136658876</v>
+        <v>2.799791126942308</v>
       </c>
       <c r="AC7">
-        <v>1369.590846306737</v>
+        <v>1369.544862548211</v>
       </c>
       <c r="AD7">
-        <v>1862.344305012249</v>
+        <v>1991.004234491088</v>
       </c>
       <c r="AE7">
-        <v>0.4981173121411988</v>
+        <v>0.5123864461621754</v>
+      </c>
+      <c r="AF7">
+        <v>1386.907308002764</v>
+      </c>
+      <c r="AG7">
+        <v>15445.68808924585</v>
+      </c>
+      <c r="AH7">
+        <v>15.25228864431229</v>
+      </c>
+      <c r="AI7">
+        <v>1283.422980853106</v>
+      </c>
+      <c r="AJ7">
+        <v>11464.04929015567</v>
+      </c>
+      <c r="AK7">
+        <v>13.72605984323579</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>104.5284559143679</v>
+        <v>104.8017200966906</v>
       </c>
       <c r="D8">
-        <v>1282.556571885319</v>
+        <v>1282.036992983411</v>
       </c>
       <c r="E8">
-        <v>26071.047526427</v>
+        <v>29870.12344271944</v>
       </c>
       <c r="F8">
-        <v>1282.556421877819</v>
+        <v>1282.036942980911</v>
       </c>
       <c r="G8">
-        <v>77595.49138677945</v>
+        <v>88160.65154073133</v>
       </c>
       <c r="H8">
-        <v>1.096560729194077</v>
+        <v>1.07362682931085</v>
       </c>
       <c r="I8">
-        <v>36.69584027690257</v>
+        <v>32.56759609500725</v>
       </c>
       <c r="J8">
-        <v>0.6877087628462325</v>
+        <v>0.7274224271053745</v>
       </c>
       <c r="K8">
-        <v>2.193121458388153</v>
+        <v>2.147253658621701</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>1387.084927794687</v>
+        <v>1386.838713080102</v>
       </c>
       <c r="N8">
-        <v>50877.90769977511</v>
+        <v>57199.58486310243</v>
       </c>
       <c r="O8">
-        <v>1387.084877792187</v>
+        <v>1386.838663077602</v>
       </c>
       <c r="P8">
-        <v>138781.5435955865</v>
+        <v>162202.382401414</v>
       </c>
       <c r="Q8">
-        <v>0.9919619940264299</v>
+        <v>1.021362700831028</v>
       </c>
       <c r="S8">
-        <v>38.82589773762334</v>
+        <v>46.83239054876043</v>
       </c>
       <c r="T8">
-        <v>0.7139661602361246</v>
+        <v>0.7401474560565362</v>
       </c>
       <c r="U8">
-        <v>1.98392398805286</v>
+        <v>2.042725401662056</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W8">
-        <v>1262.501118524252</v>
+        <v>1261.928120989732</v>
       </c>
       <c r="X8">
-        <v>11115.81257200915</v>
+        <v>12517.12002016837</v>
       </c>
       <c r="Y8">
-        <v>3.042449756062227</v>
+        <v>3.218898260553122</v>
       </c>
       <c r="Z8">
-        <v>1408.438819029932</v>
+        <v>1408.171140087663</v>
       </c>
       <c r="AA8">
-        <v>14236.00391774428</v>
+        <v>15270.89133519147</v>
       </c>
       <c r="AB8">
-        <v>2.359235896797235</v>
+        <v>2.663107488602925</v>
       </c>
       <c r="AC8">
-        <v>1369.606715237823</v>
+        <v>1369.548992523463</v>
       </c>
       <c r="AD8">
-        <v>1726.868363134193</v>
+        <v>1940.605001822975</v>
       </c>
       <c r="AE8">
-        <v>0.4949943022901858</v>
+        <v>0.5098611658749261</v>
+      </c>
+      <c r="AF8">
+        <v>1386.74589719222</v>
+      </c>
+      <c r="AG8">
+        <v>14473.40100691585</v>
+      </c>
+      <c r="AH8">
+        <v>15.34084335822093</v>
+      </c>
+      <c r="AI8">
+        <v>1284.397674398874</v>
+      </c>
+      <c r="AJ8">
+        <v>10260.04085044253</v>
+      </c>
+      <c r="AK8">
+        <v>12.88775454639097</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>104.4425803465565</v>
+        <v>104.7003558476947</v>
       </c>
       <c r="D9">
-        <v>1282.730608883238</v>
+        <v>1282.221636216673</v>
       </c>
       <c r="E9">
-        <v>14907.97610157292</v>
+        <v>28916.84507900834</v>
       </c>
       <c r="F9">
-        <v>1282.730458875737</v>
+        <v>1282.221586214172</v>
       </c>
       <c r="G9">
-        <v>45021.07176611116</v>
+        <v>85316.89735660466</v>
       </c>
       <c r="H9">
-        <v>1.10717455449488</v>
+        <v>1.076237422964805</v>
       </c>
       <c r="I9">
-        <v>19.33844489164617</v>
+        <v>30.8850520013057</v>
       </c>
       <c r="J9">
-        <v>0.6951488696589689</v>
+        <v>0.7179579378233887</v>
       </c>
       <c r="K9">
-        <v>2.214349108989759</v>
+        <v>2.15247484592961</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>1387.172989219794</v>
+        <v>1386.921892059367</v>
       </c>
       <c r="N9">
-        <v>29358.44907090918</v>
+        <v>55484.77748250605</v>
       </c>
       <c r="O9">
-        <v>1387.173039222294</v>
+        <v>1386.921942061867</v>
       </c>
       <c r="P9">
-        <v>79272.38043362426</v>
+        <v>154794.2731140872</v>
       </c>
       <c r="Q9">
-        <v>0.9799076308468753</v>
+        <v>1.010723251289345</v>
       </c>
       <c r="S9">
-        <v>22.99313732417736</v>
+        <v>49.47894718751608</v>
       </c>
       <c r="T9">
-        <v>0.717576928901798</v>
+        <v>0.7262953028792517</v>
       </c>
       <c r="U9">
-        <v>1.959815261693751</v>
+        <v>2.02144650257869</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="W9">
-        <v>1262.701434433391</v>
+        <v>1262.117832911509</v>
       </c>
       <c r="X9">
-        <v>6825.934258749581</v>
+        <v>12291.50200755396</v>
       </c>
       <c r="Y9">
-        <v>3.311821461881323</v>
+        <v>3.218448184222668</v>
       </c>
       <c r="Z9">
-        <v>1408.487827499506</v>
+        <v>1408.253535519731</v>
       </c>
       <c r="AA9">
-        <v>9014.326689450967</v>
+        <v>15400.02611500276</v>
       </c>
       <c r="AB9">
-        <v>2.396206339909425</v>
+        <v>2.530687225894553</v>
       </c>
       <c r="AC9">
-        <v>1369.628237268048</v>
+        <v>1369.568296688094</v>
       </c>
       <c r="AD9">
-        <v>1010.108127444382</v>
+        <v>1842.105051582262</v>
       </c>
       <c r="AE9">
-        <v>0.488769679427441</v>
+        <v>0.5046529226197681</v>
+      </c>
+      <c r="AF9">
+        <v>1385.337717090046</v>
+      </c>
+      <c r="AG9">
+        <v>13403.30762420714</v>
+      </c>
+      <c r="AH9">
+        <v>14.64988370686458</v>
+      </c>
+      <c r="AI9">
+        <v>1285.152033360348</v>
+      </c>
+      <c r="AJ9">
+        <v>9148.205203843399</v>
+      </c>
+      <c r="AK9">
+        <v>13.30489075891099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>104.649246356483</v>
+      </c>
+      <c r="D10">
+        <v>1282.314935009189</v>
+      </c>
+      <c r="E10">
+        <v>28702.14224577214</v>
+      </c>
+      <c r="F10">
+        <v>1282.314885006689</v>
+      </c>
+      <c r="G10">
+        <v>84821.84426653621</v>
+      </c>
+      <c r="H10">
+        <v>1.082583828183045</v>
+      </c>
+      <c r="I10">
+        <v>32.12623351083221</v>
+      </c>
+      <c r="J10">
+        <v>0.7075983007297127</v>
+      </c>
+      <c r="K10">
+        <v>2.165167656366089</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10">
+        <v>1386.964181365672</v>
+      </c>
+      <c r="N10">
+        <v>55425.97160929334</v>
+      </c>
+      <c r="O10">
+        <v>1386.964131363172</v>
+      </c>
+      <c r="P10">
+        <v>153543.9494138448</v>
+      </c>
+      <c r="Q10">
+        <v>1.00390843701207</v>
+      </c>
+      <c r="S10">
+        <v>45.09650751274634</v>
+      </c>
+      <c r="T10">
+        <v>0.7240885784529663</v>
+      </c>
+      <c r="U10">
+        <v>2.00781687402414</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10">
+        <v>1262.216827514924</v>
+      </c>
+      <c r="X10">
+        <v>12563.13596455659</v>
+      </c>
+      <c r="Y10">
+        <v>3.239559410506343</v>
+      </c>
+      <c r="Z10">
+        <v>1408.301167063854</v>
+      </c>
+      <c r="AA10">
+        <v>15078.59897140502</v>
+      </c>
+      <c r="AB10">
+        <v>2.497953627987417</v>
+      </c>
+      <c r="AC10">
+        <v>1369.588311716183</v>
+      </c>
+      <c r="AD10">
+        <v>1898.34598415018</v>
+      </c>
+      <c r="AE10">
+        <v>0.5012248611519241</v>
+      </c>
+      <c r="AF10">
+        <v>1385.8883233372</v>
+      </c>
+      <c r="AG10">
+        <v>12727.43380108534</v>
+      </c>
+      <c r="AH10">
+        <v>15.42232362540409</v>
+      </c>
+      <c r="AI10">
+        <v>1285.844392558135</v>
+      </c>
+      <c r="AJ10">
+        <v>8702.298969341769</v>
+      </c>
+      <c r="AK10">
+        <v>12.74722236087225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>104.5921805490543</v>
+      </c>
+      <c r="D11">
+        <v>1282.423043641377</v>
+      </c>
+      <c r="E11">
+        <v>27837.94021136283</v>
+      </c>
+      <c r="F11">
+        <v>1282.423093643877</v>
+      </c>
+      <c r="G11">
+        <v>82550.77430937519</v>
+      </c>
+      <c r="H11">
+        <v>1.087030234241068</v>
+      </c>
+      <c r="I11">
+        <v>31.12520716971445</v>
+      </c>
+      <c r="J11">
+        <v>0.7036046678314473</v>
+      </c>
+      <c r="K11">
+        <v>2.174060468482137</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11">
+        <v>1387.015324195432</v>
+      </c>
+      <c r="N11">
+        <v>53953.75051794459</v>
+      </c>
+      <c r="O11">
+        <v>1387.015274192932</v>
+      </c>
+      <c r="P11">
+        <v>148492.134822727</v>
+      </c>
+      <c r="Q11">
+        <v>0.9979383024019841</v>
+      </c>
+      <c r="S11">
+        <v>44.99605225985803</v>
+      </c>
+      <c r="T11">
+        <v>0.7221235481392299</v>
+      </c>
+      <c r="U11">
+        <v>1.995876604803968</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>1262.350989578253</v>
+      </c>
+      <c r="X11">
+        <v>10285.12117702119</v>
+      </c>
+      <c r="Y11">
+        <v>2.809876570844418</v>
+      </c>
+      <c r="Z11">
+        <v>1408.363960250719</v>
+      </c>
+      <c r="AA11">
+        <v>14701.85191277854</v>
+      </c>
+      <c r="AB11">
+        <v>2.399255104772506</v>
+      </c>
+      <c r="AC11">
+        <v>1369.590141570878</v>
+      </c>
+      <c r="AD11">
+        <v>1850.567359026356</v>
+      </c>
+      <c r="AE11">
+        <v>0.4981191942714219</v>
+      </c>
+      <c r="AF11">
+        <v>1385.977783045168</v>
+      </c>
+      <c r="AG11">
+        <v>12339.74386515496</v>
+      </c>
+      <c r="AH11">
+        <v>16.07327196500686</v>
+      </c>
+      <c r="AI11">
+        <v>1282.865249619122</v>
+      </c>
+      <c r="AJ11">
+        <v>10167.33091525949</v>
+      </c>
+      <c r="AK11">
+        <v>17.28571753137428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>104.5283078861826</v>
+      </c>
+      <c r="D12">
+        <v>1282.556637147004</v>
+      </c>
+      <c r="E12">
+        <v>26116.38533561481</v>
+      </c>
+      <c r="F12">
+        <v>1282.556587144504</v>
+      </c>
+      <c r="G12">
+        <v>77687.35855074393</v>
+      </c>
+      <c r="H12">
+        <v>1.096680128154716</v>
+      </c>
+      <c r="I12">
+        <v>34.34180747443114</v>
+      </c>
+      <c r="J12">
+        <v>0.6894321428427368</v>
+      </c>
+      <c r="K12">
+        <v>2.193360256309433</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12">
+        <v>1387.084845028186</v>
+      </c>
+      <c r="N12">
+        <v>50879.22596248755</v>
+      </c>
+      <c r="O12">
+        <v>1387.084895030686</v>
+      </c>
+      <c r="P12">
+        <v>138780.1978167919</v>
+      </c>
+      <c r="Q12">
+        <v>0.9919694530806409</v>
+      </c>
+      <c r="S12">
+        <v>38.8341272351274</v>
+      </c>
+      <c r="T12">
+        <v>0.7139269070784922</v>
+      </c>
+      <c r="U12">
+        <v>1.983938906161282</v>
+      </c>
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12">
+        <v>1262.469754965305</v>
+      </c>
+      <c r="X12">
+        <v>11356.28526483407</v>
+      </c>
+      <c r="Y12">
+        <v>3.108487299251562</v>
+      </c>
+      <c r="Z12">
+        <v>1408.433868521351</v>
+      </c>
+      <c r="AA12">
+        <v>13991.41355583596</v>
+      </c>
+      <c r="AB12">
+        <v>2.357544805062003</v>
+      </c>
+      <c r="AC12">
+        <v>1369.606317842155</v>
+      </c>
+      <c r="AD12">
+        <v>1717.892910929028</v>
+      </c>
+      <c r="AE12">
+        <v>0.4949926182152982</v>
+      </c>
+      <c r="AF12">
+        <v>1384.961388744078</v>
+      </c>
+      <c r="AG12">
+        <v>10576.93364120173</v>
+      </c>
+      <c r="AH12">
+        <v>15.79162324645591</v>
+      </c>
+      <c r="AI12">
+        <v>1287.620727292672</v>
+      </c>
+      <c r="AJ12">
+        <v>7536.56406161087</v>
+      </c>
+      <c r="AK12">
+        <v>13.35508306579045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>104.4412170779108</v>
+      </c>
+      <c r="D13">
+        <v>1282.731559171592</v>
+      </c>
+      <c r="E13">
+        <v>14929.89294401888</v>
+      </c>
+      <c r="F13">
+        <v>1282.731609174092</v>
+      </c>
+      <c r="G13">
+        <v>44966.13882659719</v>
+      </c>
+      <c r="H13">
+        <v>1.107363162682109</v>
+      </c>
+      <c r="I13">
+        <v>16.62949747238742</v>
+      </c>
+      <c r="J13">
+        <v>0.6926406797400113</v>
+      </c>
+      <c r="K13">
+        <v>2.214726325364219</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13">
+        <v>1387.172776249503</v>
+      </c>
+      <c r="N13">
+        <v>29356.83720467423</v>
+      </c>
+      <c r="O13">
+        <v>1387.172826252003</v>
+      </c>
+      <c r="P13">
+        <v>79228.06050283472</v>
+      </c>
+      <c r="Q13">
+        <v>0.9800098059506859</v>
+      </c>
+      <c r="S13">
+        <v>22.15614835454804</v>
+      </c>
+      <c r="T13">
+        <v>0.7163381369337839</v>
+      </c>
+      <c r="U13">
+        <v>1.960019611901372</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13">
+        <v>1262.625481146838</v>
+      </c>
+      <c r="X13">
+        <v>5406.463352832475</v>
+      </c>
+      <c r="Y13">
+        <v>2.587638816426935</v>
+      </c>
+      <c r="Z13">
+        <v>1408.510417776882</v>
+      </c>
+      <c r="AA13">
+        <v>8305.074394310795</v>
+      </c>
+      <c r="AB13">
+        <v>2.270156975163738</v>
+      </c>
+      <c r="AC13">
+        <v>1369.629837671011</v>
+      </c>
+      <c r="AD13">
+        <v>1005.867793125203</v>
+      </c>
+      <c r="AE13">
+        <v>0.4887696443155753</v>
+      </c>
+      <c r="AF13">
+        <v>1383.925199177076</v>
+      </c>
+      <c r="AG13">
+        <v>5680.660089570938</v>
+      </c>
+      <c r="AH13">
+        <v>16.0878369557016</v>
+      </c>
+      <c r="AI13">
+        <v>1282.436299181152</v>
+      </c>
+      <c r="AJ13">
+        <v>5051.014707028477</v>
+      </c>
+      <c r="AK13">
+        <v>19.39066380447843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>104.3843420628157</v>
+      </c>
+      <c r="D14">
+        <v>1282.850161012111</v>
+      </c>
+      <c r="E14">
+        <v>3953.757641435436</v>
+      </c>
+      <c r="F14">
+        <v>1282.850111009611</v>
+      </c>
+      <c r="G14">
+        <v>11926.82719988605</v>
+      </c>
+      <c r="H14">
+        <v>1.107727652873427</v>
+      </c>
+      <c r="I14">
+        <v>5.441436715099147</v>
+      </c>
+      <c r="J14">
+        <v>0.693641651314289</v>
+      </c>
+      <c r="K14">
+        <v>2.215455305746855</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14">
+        <v>1387.234403069926</v>
+      </c>
+      <c r="N14">
+        <v>7749.415797683992</v>
+      </c>
+      <c r="O14">
+        <v>1387.234453072427</v>
+      </c>
+      <c r="P14">
+        <v>20844.67522620203</v>
+      </c>
+      <c r="Q14">
+        <v>0.9798715630000432</v>
+      </c>
+      <c r="S14">
+        <v>6.032724715690596</v>
+      </c>
+      <c r="T14">
+        <v>0.7076708910088947</v>
+      </c>
+      <c r="U14">
+        <v>1.959743126000086</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14">
+        <v>1262.772290433368</v>
+      </c>
+      <c r="X14">
+        <v>1774.883293698979</v>
+      </c>
+      <c r="Y14">
+        <v>3.020410962703126</v>
+      </c>
+      <c r="Z14">
+        <v>1408.584523101346</v>
+      </c>
+      <c r="AA14">
+        <v>2160.2851602455</v>
+      </c>
+      <c r="AB14">
+        <v>2.258534693797938</v>
+      </c>
+      <c r="AC14">
+        <v>1369.645314939548</v>
+      </c>
+      <c r="AD14">
+        <v>266.1557643899489</v>
+      </c>
+      <c r="AE14">
+        <v>0.4885976274038515</v>
+      </c>
+      <c r="AF14">
+        <v>1383.386463528387</v>
+      </c>
+      <c r="AG14">
+        <v>1366.453405094706</v>
+      </c>
+      <c r="AH14">
+        <v>15.94888067905873</v>
+      </c>
+      <c r="AI14">
+        <v>1289.473180670511</v>
+      </c>
+      <c r="AJ14">
+        <v>854.1202680336515</v>
+      </c>
+      <c r="AK14">
+        <v>13.038962299408</v>
       </c>
     </row>
   </sheetData>
